--- a/data/region_mapping.xlsx
+++ b/data/region_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innio.sharepoint.com/teams/ITTransformation/Shared Documents/21 - Data &amp; Analytics/Data &amp; Analytics/Team Composition/Job Postings/Test Cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\innio_case_study\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A50DA372-EA44-4551-ACA9-6A6F824638B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C1455EC-8F9A-48BF-BCF1-3CC02FC42889}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0DA3B5-A0B6-4BCA-8E63-3B74CA696F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56B5E0DA-454C-4362-9CE0-A4D01AF506BC}"/>
+    <workbookView xWindow="3540" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{56B5E0DA-454C-4362-9CE0-A4D01AF506BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -107,10 +105,10 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>Region starting 2016</t>
-  </si>
-  <si>
-    <t>Region until 2017</t>
+    <t>Region until 2016</t>
+  </si>
+  <si>
+    <t>Region after 2016</t>
   </si>
 </sst>
 </file>
@@ -485,7 +483,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +740,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1F6BAFF18CB1440A74D07C05FCC1BB2" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc20d96ffd6cd424a9f2a2fdcc56ca44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8ac989f9-0ede-4c4e-8f6c-7031f4c22e86" xmlns:ns3="7c1c8569-feb0-445a-ada3-4d5dda49330e" xmlns:ns4="55800d30-4044-4849-804b-cac89b3dde70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bfcf409b43443384bea3056a4bb42b1" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="8ac989f9-0ede-4c4e-8f6c-7031f4c22e86"/>
@@ -995,15 +1002,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1016,15 +1014,42 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7BC12D3-683D-4373-BAA1-C7C758B87BB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1362AAC-38D0-46FA-9FFB-5B9C3AD5B830}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1362AAC-38D0-46FA-9FFB-5B9C3AD5B830}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7BC12D3-683D-4373-BAA1-C7C758B87BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8ac989f9-0ede-4c4e-8f6c-7031f4c22e86"/>
+    <ds:schemaRef ds:uri="7c1c8569-feb0-445a-ada3-4d5dda49330e"/>
+    <ds:schemaRef ds:uri="55800d30-4044-4849-804b-cac89b3dde70"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68C5E58-FCA7-4F02-A339-7BE135C883B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68C5E58-FCA7-4F02-A339-7BE135C883B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8ac989f9-0ede-4c4e-8f6c-7031f4c22e86"/>
+    <ds:schemaRef ds:uri="55800d30-4044-4849-804b-cac89b3dde70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
